--- a/spliced/falling/2023-03-21_15-34-51/data_selected.xlsx
+++ b/spliced/falling/2023-03-21_15-34-51/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.267019510269166</v>
+        <v>-0.647717118263246</v>
       </c>
       <c r="D2" t="n">
-        <v>0.685441792011261</v>
+        <v>0.6091025024652482</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.929712772369385</v>
+        <v>-1.090710066258908</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2064724564552307</v>
+        <v>-0.2335032373666763</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6855435371398926</v>
+        <v>-0.1345430761575698</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.0025961773935705</v>
+        <v>0.1078177168965339</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-2.677021622657784</v>
+        <v>0.267019510269166</v>
       </c>
       <c r="D3" t="n">
-        <v>1.140331387519837</v>
+        <v>0.685441792011261</v>
       </c>
       <c r="E3" t="n">
-        <v>-3.259481757879259</v>
+        <v>-1.929712772369385</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.5294674634933472</v>
+        <v>0.2064724564552307</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.286787629127502</v>
+        <v>0.6855435371398926</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7295258045196533</v>
+        <v>-0.0025961773935705</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-3.752705574035641</v>
+        <v>-2.677021622657784</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1266469955444285</v>
+        <v>1.140331387519837</v>
       </c>
       <c r="E4" t="n">
-        <v>-3.833806037902831</v>
+        <v>-3.259481757879259</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2220495194196701</v>
+        <v>-0.5294674634933472</v>
       </c>
       <c r="G4" t="n">
-        <v>1.673159956932068</v>
+        <v>-1.286787629127502</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.2864958047866821</v>
+        <v>0.7295258045196533</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-2.037854313850402</v>
+        <v>-3.752705574035641</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.757584318518639</v>
+        <v>0.1266469955444285</v>
       </c>
       <c r="E5" t="n">
-        <v>-4.232977330684662</v>
+        <v>-3.833806037902831</v>
       </c>
       <c r="F5" t="n">
-        <v>1.537395119667053</v>
+        <v>-0.2220495194196701</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1259909570217132</v>
+        <v>1.673159956932068</v>
       </c>
       <c r="H5" t="n">
-        <v>1.005178809165955</v>
+        <v>-0.2864958047866821</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.6653454303741511</v>
+        <v>-2.037854313850402</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.170329928398127</v>
+        <v>-1.757584318518639</v>
       </c>
       <c r="E6" t="n">
-        <v>-4.288471162319181</v>
+        <v>-4.232977330684662</v>
       </c>
       <c r="F6" t="n">
-        <v>1.060462117195129</v>
+        <v>1.537395119667053</v>
       </c>
       <c r="G6" t="n">
-        <v>2.47568416595459</v>
+        <v>0.1259909570217132</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.4978551864624023</v>
+        <v>1.005178809165955</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6.532986879348751</v>
+        <v>0.6653454303741511</v>
       </c>
       <c r="D7" t="n">
-        <v>3.017351433634759</v>
+        <v>-1.170329928398127</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.068784326314926</v>
+        <v>-4.288471162319181</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0458148941397666</v>
+        <v>1.060462117195129</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.0255036242306232</v>
+        <v>2.47568416595459</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2715296149253845</v>
+        <v>-0.4978551864624023</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>18.19013786315915</v>
+        <v>6.532986879348751</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.260523200035099</v>
+        <v>3.017351433634759</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.666294097900378</v>
+        <v>-2.068784326314926</v>
       </c>
       <c r="F8" t="n">
-        <v>1.928959727287292</v>
+        <v>0.0458148941397666</v>
       </c>
       <c r="G8" t="n">
-        <v>-2.550820589065552</v>
+        <v>-0.0255036242306232</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1204931661486625</v>
+        <v>0.2715296149253845</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3.454264044761617</v>
+        <v>18.19013786315915</v>
       </c>
       <c r="D9" t="n">
-        <v>-3.018810793757443</v>
+        <v>-1.260523200035099</v>
       </c>
       <c r="E9" t="n">
-        <v>4.176114320755021</v>
+        <v>-1.666294097900378</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.414597511291504</v>
+        <v>1.928959727287292</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.663803577423096</v>
+        <v>-2.550820589065552</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.4114177525043487</v>
+        <v>0.1204931661486625</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-2.487935662269598</v>
+        <v>3.454264044761617</v>
       </c>
       <c r="D10" t="n">
-        <v>-2.543778419494628</v>
+        <v>-3.018810793757443</v>
       </c>
       <c r="E10" t="n">
-        <v>1.669345378875728</v>
+        <v>4.176114320755021</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.17408299446106</v>
+        <v>-2.414597511291504</v>
       </c>
       <c r="G10" t="n">
-        <v>-2.489275932312012</v>
+        <v>-4.663803577423096</v>
       </c>
       <c r="H10" t="n">
-        <v>2.557387351989746</v>
+        <v>-0.4114177525043487</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-3.830603927373887</v>
+        <v>-2.487935662269598</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2204467952251492</v>
+        <v>-2.543778419494628</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.175938785076143</v>
+        <v>1.669345378875728</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7553348541259766</v>
+        <v>-1.17408299446106</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.4101960062980652</v>
+        <v>-2.489275932312012</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0250454749912023</v>
+        <v>2.557387351989746</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-1.900156617164608</v>
+        <v>-3.830603927373887</v>
       </c>
       <c r="D12" t="n">
-        <v>1.774007081985473</v>
+        <v>0.2204467952251492</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5321333408355735</v>
+        <v>-0.175938785076143</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.3065016269683838</v>
+        <v>0.7553348541259766</v>
       </c>
       <c r="G12" t="n">
-        <v>1.078024387359619</v>
+        <v>-0.4101960062980652</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.3802636265754699</v>
+        <v>0.0250454749912023</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.05286502838134848</v>
+        <v>-1.900156617164608</v>
       </c>
       <c r="D13" t="n">
-        <v>1.17630578577518</v>
+        <v>1.774007081985473</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1615847945213218</v>
+        <v>0.5321333408355735</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.4914411008358001</v>
+        <v>-0.3065016269683838</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9477574229240416</v>
+        <v>1.078024387359619</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.8666650652885437</v>
+        <v>-0.3802636265754699</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.2886838912963931</v>
+        <v>-0.05286502838134848</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.4110565781593385</v>
+        <v>1.17630578577518</v>
       </c>
       <c r="E14" t="n">
-        <v>-2.086986064910885</v>
+        <v>0.1615847945213218</v>
       </c>
       <c r="F14" t="n">
-        <v>-2.012648344039917</v>
+        <v>-0.4914411008358001</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.2553416788578033</v>
+        <v>0.9477574229240416</v>
       </c>
       <c r="H14" t="n">
-        <v>0.6989825367927551</v>
+        <v>-0.8666650652885437</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.627060890197746</v>
+        <v>0.2886838912963931</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.724348947405808</v>
+        <v>-0.4110565781593385</v>
       </c>
       <c r="E15" t="n">
-        <v>-1.244763821363449</v>
+        <v>-2.086986064910885</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.6099489331245422</v>
+        <v>-2.012648344039917</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1099557429552078</v>
+        <v>-0.2553416788578033</v>
       </c>
       <c r="H15" t="n">
-        <v>1.45645546913147</v>
+        <v>0.6989825367927551</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.4237871170043968</v>
+        <v>1.627060890197746</v>
       </c>
       <c r="D16" t="n">
-        <v>0.08827400207519412</v>
+        <v>-1.724348947405808</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.242120027542113</v>
+        <v>-1.244763821363449</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.4775438904762268</v>
+        <v>-0.6099489331245422</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0181732401251792</v>
+        <v>0.1099557429552078</v>
       </c>
       <c r="H16" t="n">
-        <v>0.7333437204360962</v>
+        <v>1.45645546913147</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.9415997862815861</v>
+        <v>-0.4237871170043968</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.1760265231132508</v>
+        <v>0.08827400207519412</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.037874072790145</v>
+        <v>-1.242120027542113</v>
       </c>
       <c r="F17" t="n">
-        <v>0.157145082950592</v>
+        <v>-0.4775438904762268</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.3301726579666137</v>
+        <v>0.0181732401251792</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.2449569702148437</v>
+        <v>0.7333437204360962</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.001672983169554332</v>
+        <v>-0.9415997862815861</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4224766492843636</v>
+        <v>-0.1760265231132508</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.9314604401588438</v>
+        <v>-1.037874072790145</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2209804952144622</v>
+        <v>0.157145082950592</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.2324342280626297</v>
+        <v>-0.3301726579666137</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.090408056974411</v>
+        <v>-0.2449569702148437</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.1520071625709529</v>
+        <v>-0.001672983169554332</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5053948163986203</v>
+        <v>0.4224766492843636</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.4284574091434467</v>
+        <v>-0.9314604401588438</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1496619880199432</v>
+        <v>0.2209804952144622</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.0774271711707115</v>
+        <v>-0.2324342280626297</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1209513172507286</v>
+        <v>-0.090408056974411</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.0122048854827883</v>
+        <v>0.1520071625709529</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3785421848297117</v>
+        <v>0.5053948163986203</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.2985985279083258</v>
+        <v>-0.4284574091434467</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1823432743549347</v>
+        <v>0.1496619880199432</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1472185254096985</v>
+        <v>-0.0774271711707115</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.3480404615402221</v>
+        <v>0.1209513172507286</v>
       </c>
     </row>
     <row r="21">
@@ -1017,50 +1017,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.5578445792198222</v>
+        <v>-0.0122048854827883</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3809743523597721</v>
+        <v>0.3785421848297117</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0945302546024358</v>
+        <v>-0.2985985279083258</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5630650520324707</v>
+        <v>0.1823432743549347</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6291912198066711</v>
+        <v>0.1472185254096985</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.8999572396278381</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2000</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>falling</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>1.200664520263672</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.5283758044242859</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.6270142197608946</v>
-      </c>
-      <c r="F22" t="n">
-        <v>-0.0210748501121997</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-0.0826195254921913</v>
-      </c>
-      <c r="H22" t="n">
-        <v>-0.0035124751739203</v>
+        <v>-0.3480404615402221</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-21_15-34-51/data_selected.xlsx
+++ b/spliced/falling/2023-03-21_15-34-51/data_selected.xlsx
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.647717118263246</v>
+        <v>1.442139625549314</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6091025024652482</v>
+        <v>0.4175686836242678</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.090710066258908</v>
+        <v>-0.7117971777915959</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.2335032373666763</v>
+        <v>-0.1186605766415596</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1345430761575698</v>
+        <v>-0.207236036658287</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1078177168965339</v>
+        <v>-0.081550508737564</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.267019510269166</v>
+        <v>-0.647717118263246</v>
       </c>
       <c r="D3" t="n">
-        <v>0.685441792011261</v>
+        <v>0.6091025024652482</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.929712772369385</v>
+        <v>-1.090710066258908</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2064724564552307</v>
+        <v>-0.2335032373666763</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6855435371398926</v>
+        <v>-0.1345430761575698</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.0025961773935705</v>
+        <v>0.1078177168965339</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-2.677021622657784</v>
+        <v>0.267019510269166</v>
       </c>
       <c r="D4" t="n">
-        <v>1.140331387519837</v>
+        <v>0.685441792011261</v>
       </c>
       <c r="E4" t="n">
-        <v>-3.259481757879259</v>
+        <v>-1.929712772369385</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.5294674634933472</v>
+        <v>0.2064724564552307</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.286787629127502</v>
+        <v>0.6855435371398926</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7295258045196533</v>
+        <v>-0.0025961773935705</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-3.752705574035641</v>
+        <v>-2.677021622657784</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1266469955444285</v>
+        <v>1.140331387519837</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.833806037902831</v>
+        <v>-3.259481757879259</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2220495194196701</v>
+        <v>-0.5294674634933472</v>
       </c>
       <c r="G5" t="n">
-        <v>1.673159956932068</v>
+        <v>-1.286787629127502</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.2864958047866821</v>
+        <v>0.7295258045196533</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-2.037854313850402</v>
+        <v>-3.752705574035641</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.757584318518639</v>
+        <v>0.1266469955444285</v>
       </c>
       <c r="E6" t="n">
-        <v>-4.232977330684662</v>
+        <v>-3.833806037902831</v>
       </c>
       <c r="F6" t="n">
-        <v>1.537395119667053</v>
+        <v>-0.2220495194196701</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1259909570217132</v>
+        <v>1.673159956932068</v>
       </c>
       <c r="H6" t="n">
-        <v>1.005178809165955</v>
+        <v>-0.2864958047866821</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.6653454303741511</v>
+        <v>-2.037854313850402</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.170329928398127</v>
+        <v>-1.757584318518639</v>
       </c>
       <c r="E7" t="n">
-        <v>-4.288471162319181</v>
+        <v>-4.232977330684662</v>
       </c>
       <c r="F7" t="n">
-        <v>1.060462117195129</v>
+        <v>1.537395119667053</v>
       </c>
       <c r="G7" t="n">
-        <v>2.47568416595459</v>
+        <v>0.1259909570217132</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.4978551864624023</v>
+        <v>1.005178809165955</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6.532986879348751</v>
+        <v>0.6653454303741511</v>
       </c>
       <c r="D8" t="n">
-        <v>3.017351433634759</v>
+        <v>-1.170329928398127</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.068784326314926</v>
+        <v>-4.288471162319181</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0458148941397666</v>
+        <v>1.060462117195129</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.0255036242306232</v>
+        <v>2.47568416595459</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2715296149253845</v>
+        <v>-0.4978551864624023</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>18.19013786315915</v>
+        <v>6.532986879348751</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.260523200035099</v>
+        <v>3.017351433634759</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.666294097900378</v>
+        <v>-2.068784326314926</v>
       </c>
       <c r="F9" t="n">
-        <v>1.928959727287292</v>
+        <v>0.0458148941397666</v>
       </c>
       <c r="G9" t="n">
-        <v>-2.550820589065552</v>
+        <v>-0.0255036242306232</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1204931661486625</v>
+        <v>0.2715296149253845</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3.454264044761617</v>
+        <v>18.19013786315915</v>
       </c>
       <c r="D10" t="n">
-        <v>-3.018810793757443</v>
+        <v>-1.260523200035099</v>
       </c>
       <c r="E10" t="n">
-        <v>4.176114320755021</v>
+        <v>-1.666294097900378</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.414597511291504</v>
+        <v>1.928959727287292</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.663803577423096</v>
+        <v>-2.550820589065552</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.4114177525043487</v>
+        <v>0.1204931661486625</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-2.487935662269598</v>
+        <v>3.454264044761617</v>
       </c>
       <c r="D11" t="n">
-        <v>-2.543778419494628</v>
+        <v>-3.018810793757443</v>
       </c>
       <c r="E11" t="n">
-        <v>1.669345378875728</v>
+        <v>4.176114320755021</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.17408299446106</v>
+        <v>-2.414597511291504</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.489275932312012</v>
+        <v>-4.663803577423096</v>
       </c>
       <c r="H11" t="n">
-        <v>2.557387351989746</v>
+        <v>-0.4114177525043487</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-3.830603927373887</v>
+        <v>-2.487935662269598</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2204467952251492</v>
+        <v>-2.543778419494628</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.175938785076143</v>
+        <v>1.669345378875728</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7553348541259766</v>
+        <v>-1.17408299446106</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.4101960062980652</v>
+        <v>-2.489275932312012</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0250454749912023</v>
+        <v>2.557387351989746</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-1.900156617164608</v>
+        <v>-3.830603927373887</v>
       </c>
       <c r="D13" t="n">
-        <v>1.774007081985473</v>
+        <v>0.2204467952251492</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5321333408355735</v>
+        <v>-0.175938785076143</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.3065016269683838</v>
+        <v>0.7553348541259766</v>
       </c>
       <c r="G13" t="n">
-        <v>1.078024387359619</v>
+        <v>-0.4101960062980652</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.3802636265754699</v>
+        <v>0.0250454749912023</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.05286502838134848</v>
+        <v>-1.900156617164608</v>
       </c>
       <c r="D14" t="n">
-        <v>1.17630578577518</v>
+        <v>1.774007081985473</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1615847945213218</v>
+        <v>0.5321333408355735</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.4914411008358001</v>
+        <v>-0.3065016269683838</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9477574229240416</v>
+        <v>1.078024387359619</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.8666650652885437</v>
+        <v>-0.3802636265754699</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.2886838912963931</v>
+        <v>-0.05286502838134848</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.4110565781593385</v>
+        <v>1.17630578577518</v>
       </c>
       <c r="E15" t="n">
-        <v>-2.086986064910885</v>
+        <v>0.1615847945213218</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.012648344039917</v>
+        <v>-0.4914411008358001</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.2553416788578033</v>
+        <v>0.9477574229240416</v>
       </c>
       <c r="H15" t="n">
-        <v>0.6989825367927551</v>
+        <v>-0.8666650652885437</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.627060890197746</v>
+        <v>0.2886838912963931</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.724348947405808</v>
+        <v>-0.4110565781593385</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.244763821363449</v>
+        <v>-2.086986064910885</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6099489331245422</v>
+        <v>-2.012648344039917</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1099557429552078</v>
+        <v>-0.2553416788578033</v>
       </c>
       <c r="H16" t="n">
-        <v>1.45645546913147</v>
+        <v>0.6989825367927551</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.4237871170043968</v>
+        <v>1.627060890197746</v>
       </c>
       <c r="D17" t="n">
-        <v>0.08827400207519412</v>
+        <v>-1.724348947405808</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.242120027542113</v>
+        <v>-1.244763821363449</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.4775438904762268</v>
+        <v>-0.6099489331245422</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0181732401251792</v>
+        <v>0.1099557429552078</v>
       </c>
       <c r="H17" t="n">
-        <v>0.7333437204360962</v>
+        <v>1.45645546913147</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.9415997862815861</v>
+        <v>-0.4237871170043968</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.1760265231132508</v>
+        <v>0.08827400207519412</v>
       </c>
       <c r="E18" t="n">
-        <v>-1.037874072790145</v>
+        <v>-1.242120027542113</v>
       </c>
       <c r="F18" t="n">
-        <v>0.157145082950592</v>
+        <v>-0.4775438904762268</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.3301726579666137</v>
+        <v>0.0181732401251792</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.2449569702148437</v>
+        <v>0.7333437204360962</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.001672983169554332</v>
+        <v>-0.9415997862815861</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4224766492843636</v>
+        <v>-0.1760265231132508</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.9314604401588438</v>
+        <v>-1.037874072790145</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2209804952144622</v>
+        <v>0.157145082950592</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.2324342280626297</v>
+        <v>-0.3301726579666137</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.090408056974411</v>
+        <v>-0.2449569702148437</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.1520071625709529</v>
+        <v>-0.001672983169554332</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5053948163986203</v>
+        <v>0.4224766492843636</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.4284574091434467</v>
+        <v>-0.9314604401588438</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1496619880199432</v>
+        <v>0.2209804952144622</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.0774271711707115</v>
+        <v>-0.2324342280626297</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1209513172507286</v>
+        <v>-0.090408056974411</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.0122048854827883</v>
+        <v>0.1520071625709529</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3785421848297117</v>
+        <v>0.5053948163986203</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.2985985279083258</v>
+        <v>-0.4284574091434467</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1823432743549347</v>
+        <v>0.1496619880199432</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1472185254096985</v>
+        <v>-0.0774271711707115</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.3480404615402221</v>
+        <v>0.1209513172507286</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-21_15-34-51/data_selected.xlsx
+++ b/spliced/falling/2023-03-21_15-34-51/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.442139625549314</v>
+        <v>-0.2407464981079101</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4175686836242678</v>
+        <v>0.5433270186185837</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.7117971777915959</v>
+        <v>-0.3658644706010817</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1186605766415596</v>
+        <v>0.08857546001672741</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.207236036658287</v>
+        <v>-0.0678060427308082</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.081550508737564</v>
+        <v>-0.0534507073462009</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.647717118263246</v>
+        <v>-0.2030138969421392</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6091025024652482</v>
+        <v>0.5583634674549103</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.090710066258908</v>
+        <v>-0.1664191037416463</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.2335032373666763</v>
+        <v>0.0888808965682983</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1345430761575698</v>
+        <v>0.1319468915462494</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1078177168965339</v>
+        <v>-0.0287106670439243</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.267019510269166</v>
+        <v>-0.3572314977645862</v>
       </c>
       <c r="D4" t="n">
-        <v>0.685441792011261</v>
+        <v>0.5254133790731429</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.929712772369385</v>
+        <v>-0.5817861706018449</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2064724564552307</v>
+        <v>0.3381139039993286</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6855435371398926</v>
+        <v>0.00534507073462</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.0025961773935705</v>
+        <v>0.1145372316241264</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-2.677021622657784</v>
+        <v>1.442139625549314</v>
       </c>
       <c r="D5" t="n">
-        <v>1.140331387519837</v>
+        <v>0.4175686836242678</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.259481757879259</v>
+        <v>-0.7117971777915959</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.5294674634933472</v>
+        <v>-0.1186605766415596</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.286787629127502</v>
+        <v>-0.207236036658287</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7295258045196533</v>
+        <v>-0.081550508737564</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-3.752705574035641</v>
+        <v>-0.647717118263246</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1266469955444285</v>
+        <v>0.6091025024652482</v>
       </c>
       <c r="E6" t="n">
-        <v>-3.833806037902831</v>
+        <v>-1.090710066258908</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2220495194196701</v>
+        <v>-0.2335032373666763</v>
       </c>
       <c r="G6" t="n">
-        <v>1.673159956932068</v>
+        <v>-0.1345430761575698</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.2864958047866821</v>
+        <v>0.1078177168965339</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-2.037854313850402</v>
+        <v>0.267019510269166</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.757584318518639</v>
+        <v>0.685441792011261</v>
       </c>
       <c r="E7" t="n">
-        <v>-4.232977330684662</v>
+        <v>-1.929712772369385</v>
       </c>
       <c r="F7" t="n">
-        <v>1.537395119667053</v>
+        <v>0.2064724564552307</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1259909570217132</v>
+        <v>0.6855435371398926</v>
       </c>
       <c r="H7" t="n">
-        <v>1.005178809165955</v>
+        <v>-0.0025961773935705</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.6653454303741511</v>
+        <v>-2.677021622657784</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.170329928398127</v>
+        <v>1.140331387519837</v>
       </c>
       <c r="E8" t="n">
-        <v>-4.288471162319181</v>
+        <v>-3.259481757879259</v>
       </c>
       <c r="F8" t="n">
-        <v>1.060462117195129</v>
+        <v>-0.5294674634933472</v>
       </c>
       <c r="G8" t="n">
-        <v>2.47568416595459</v>
+        <v>-1.286787629127502</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.4978551864624023</v>
+        <v>0.7295258045196533</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6.532986879348751</v>
+        <v>-3.752705574035641</v>
       </c>
       <c r="D9" t="n">
-        <v>3.017351433634759</v>
+        <v>0.1266469955444285</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.068784326314926</v>
+        <v>-3.833806037902831</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0458148941397666</v>
+        <v>-0.2220495194196701</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.0255036242306232</v>
+        <v>1.673159956932068</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2715296149253845</v>
+        <v>-0.2864958047866821</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>18.19013786315915</v>
+        <v>-2.037854313850402</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.260523200035099</v>
+        <v>-1.757584318518639</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.666294097900378</v>
+        <v>-4.232977330684662</v>
       </c>
       <c r="F10" t="n">
-        <v>1.928959727287292</v>
+        <v>1.537395119667053</v>
       </c>
       <c r="G10" t="n">
-        <v>-2.550820589065552</v>
+        <v>0.1259909570217132</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1204931661486625</v>
+        <v>1.005178809165955</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3.454264044761617</v>
+        <v>0.6653454303741511</v>
       </c>
       <c r="D11" t="n">
-        <v>-3.018810793757443</v>
+        <v>-1.170329928398127</v>
       </c>
       <c r="E11" t="n">
-        <v>4.176114320755021</v>
+        <v>-4.288471162319181</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.414597511291504</v>
+        <v>1.060462117195129</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.663803577423096</v>
+        <v>2.47568416595459</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.4114177525043487</v>
+        <v>-0.4978551864624023</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-2.487935662269598</v>
+        <v>6.532986879348751</v>
       </c>
       <c r="D12" t="n">
-        <v>-2.543778419494628</v>
+        <v>3.017351433634759</v>
       </c>
       <c r="E12" t="n">
-        <v>1.669345378875728</v>
+        <v>-2.068784326314926</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.17408299446106</v>
+        <v>0.0458148941397666</v>
       </c>
       <c r="G12" t="n">
-        <v>-2.489275932312012</v>
+        <v>-0.0255036242306232</v>
       </c>
       <c r="H12" t="n">
-        <v>2.557387351989746</v>
+        <v>0.2715296149253845</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-3.830603927373887</v>
+        <v>18.19013786315915</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2204467952251492</v>
+        <v>-1.260523200035099</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.175938785076143</v>
+        <v>-1.666294097900378</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7553348541259766</v>
+        <v>1.928959727287292</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.4101960062980652</v>
+        <v>-2.550820589065552</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0250454749912023</v>
+        <v>0.1204931661486625</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-1.900156617164608</v>
+        <v>3.454264044761617</v>
       </c>
       <c r="D14" t="n">
-        <v>1.774007081985473</v>
+        <v>-3.018810793757443</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5321333408355735</v>
+        <v>4.176114320755021</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.3065016269683838</v>
+        <v>-2.414597511291504</v>
       </c>
       <c r="G14" t="n">
-        <v>1.078024387359619</v>
+        <v>-4.663803577423096</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.3802636265754699</v>
+        <v>-0.4114177525043487</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.05286502838134848</v>
+        <v>-2.487935662269598</v>
       </c>
       <c r="D15" t="n">
-        <v>1.17630578577518</v>
+        <v>-2.543778419494628</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1615847945213218</v>
+        <v>1.669345378875728</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4914411008358001</v>
+        <v>-1.17408299446106</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9477574229240416</v>
+        <v>-2.489275932312012</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.8666650652885437</v>
+        <v>2.557387351989746</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.2886838912963931</v>
+        <v>-3.830603927373887</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.4110565781593385</v>
+        <v>0.2204467952251492</v>
       </c>
       <c r="E16" t="n">
-        <v>-2.086986064910885</v>
+        <v>-0.175938785076143</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.012648344039917</v>
+        <v>0.7553348541259766</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.2553416788578033</v>
+        <v>-0.4101960062980652</v>
       </c>
       <c r="H16" t="n">
-        <v>0.6989825367927551</v>
+        <v>0.0250454749912023</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.627060890197746</v>
+        <v>-1.900156617164608</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.724348947405808</v>
+        <v>1.774007081985473</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.244763821363449</v>
+        <v>0.5321333408355735</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6099489331245422</v>
+        <v>-0.3065016269683838</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1099557429552078</v>
+        <v>1.078024387359619</v>
       </c>
       <c r="H17" t="n">
-        <v>1.45645546913147</v>
+        <v>-0.3802636265754699</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.4237871170043968</v>
+        <v>-0.05286502838134848</v>
       </c>
       <c r="D18" t="n">
-        <v>0.08827400207519412</v>
+        <v>1.17630578577518</v>
       </c>
       <c r="E18" t="n">
-        <v>-1.242120027542113</v>
+        <v>0.1615847945213218</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.4775438904762268</v>
+        <v>-0.4914411008358001</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0181732401251792</v>
+        <v>0.9477574229240416</v>
       </c>
       <c r="H18" t="n">
-        <v>0.7333437204360962</v>
+        <v>-0.8666650652885437</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.9415997862815861</v>
+        <v>0.2886838912963931</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.1760265231132508</v>
+        <v>-0.4110565781593385</v>
       </c>
       <c r="E19" t="n">
-        <v>-1.037874072790145</v>
+        <v>-2.086986064910885</v>
       </c>
       <c r="F19" t="n">
-        <v>0.157145082950592</v>
+        <v>-2.012648344039917</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.3301726579666137</v>
+        <v>-0.2553416788578033</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.2449569702148437</v>
+        <v>0.6989825367927551</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.001672983169554332</v>
+        <v>1.627060890197746</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4224766492843636</v>
+        <v>-1.724348947405808</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.9314604401588438</v>
+        <v>-1.244763821363449</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2209804952144622</v>
+        <v>-0.6099489331245422</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.2324342280626297</v>
+        <v>0.1099557429552078</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.090408056974411</v>
+        <v>1.45645546913147</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>-0.4237871170043968</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.08827400207519412</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-1.242120027542113</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.4775438904762268</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.0181732401251792</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.7333437204360962</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.9415997862815861</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-0.1760265231132508</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-1.037874072790145</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.157145082950592</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-0.3301726579666137</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.2449569702148437</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.001672983169554332</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.4224766492843636</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-0.9314604401588438</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.2209804952144622</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.2324342280626297</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.090408056974411</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
         <v>0.1520071625709529</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D24" t="n">
         <v>0.5053948163986203</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E24" t="n">
         <v>-0.4284574091434467</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F24" t="n">
         <v>0.1496619880199432</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G24" t="n">
         <v>-0.0774271711707115</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H24" t="n">
         <v>0.1209513172507286</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.0122048854827883</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.3785421848297117</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-0.2985985279083258</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.1823432743549347</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.1472185254096985</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-0.3480404615402221</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0.5578445792198222</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.3809743523597721</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.0945302546024358</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.5630650520324707</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.6291912198066711</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-0.8999572396278381</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1.200664520263672</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.5283758044242859</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.6270142197608946</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.0210748501121997</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-0.0826195254921913</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-0.0035124751739203</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.02087068557739279</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.6865898966789239</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-0.5058017373085018</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.0372627787292003</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.0313068442046642</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-0.06322455406188961</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.09223079681396533</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.5110847949981689</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-0.3808159828186036</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0158824957907199</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0445931628346443</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.0317649915814399</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.2094589471817022</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.502252608537674</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-0.392595499753952</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0148134818300604</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-0.0259617734700441</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.0120645882561802</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.01102042198181016</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.4913336634635925</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-0.3189654350280756</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0215329993516206</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0319177098572254</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.009315694682300001</v>
       </c>
     </row>
   </sheetData>
